--- a/medicine/Mort/Cimetière_monumental_de_Messine/Cimetière_monumental_de_Messine.xlsx
+++ b/medicine/Mort/Cimetière_monumental_de_Messine/Cimetière_monumental_de_Messine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_Messine</t>
+          <t>Cimetière_monumental_de_Messine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière monumental de Messine (en italien le cimitero monumentale di Messina, dit aussi Gran camposanto) est la plus grande nécropole de Messine.
-Il s'agit d'un des cimetières avec celui de Staglieno qui comporte le plus grand nombre d'œuvres sculptées d'Italie[1],[2]. Il comporte un grand nombre de statues et de réalisations architecturales propres à l'architecture messinèse[3].
-Il se situe à proximité de la zone centrale de la ville , en face de la villa Dante sur la via Catania et s'étend sur une vingtaine d'hectares[4].
+Il s'agit d'un des cimetières avec celui de Staglieno qui comporte le plus grand nombre d'œuvres sculptées d'Italie,. Il comporte un grand nombre de statues et de réalisations architecturales propres à l'architecture messinèse.
+Il se situe à proximité de la zone centrale de la ville , en face de la villa Dante sur la via Catania et s'étend sur une vingtaine d'hectares.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_Messine</t>
+          <t>Cimetière_monumental_de_Messine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appel d'offres pour la construction du cimetière date de 1854, pendant l’épidémie de choléra qui sévissait à Messine et toute la Sicile.
-L'appel d'offre squi est ouvert à tous les opérateurs du royaume des Deux-Siciles est remporté par l'architecte de Messine Leone Savoja mais il faut attendre sept ans pour que le conseil communal entérine la décision. Les travaux débutent néanmoins en 1865[5].
+L'appel d'offre squi est ouvert à tous les opérateurs du royaume des Deux-Siciles est remporté par l'architecte de Messine Leone Savoja mais il faut attendre sept ans pour que le conseil communal entérine la décision. Les travaux débutent néanmoins en 1865.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_Messine</t>
+          <t>Cimetière_monumental_de_Messine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_Messine</t>
+          <t>Cimetière_monumental_de_Messine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,6 +588,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,7 +597,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_Messine</t>
+          <t>Cimetière_monumental_de_Messine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,7 +615,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(it) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en italien intitulé « Cimitero monumentale di Messina » (voir la liste des auteurs).</t>
         </is>
